--- a/excel.xlsx
+++ b/excel.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -368,6 +364,21 @@
     <row r="3" spans="1:1">
       <c r="A3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
